--- a/biology/Botanique/Salak/Salak.xlsx
+++ b/biology/Botanique/Salak/Salak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salacca zalacca
 Le salak (Salacca zalacca) est une espèce de petit palmier de la famille des Arecaceae. Espèce ultratropicale, ce palmier est très épineux, parfois rampant mesurant jusqu'à 6 m de haut. La tige est généralement souterraine.
@@ -513,7 +525,9 @@
           <t>Présentation du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit, nommé également salak, pousse en petits groupes à la base de l'arbre.
 C'est une drupe ovale ou fusiforme de 5 à 8 cm de long, recouverte de dures écailles brunes rappelant la peau d'un serpent. C'est la raison pour laquelle on l'appelle « fruit serpent » (salak signifie serpent en javanais et en soundanais). Le noyau a la taille d'une noisette.
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calamus zalacca Gaertn.
 Salacca edulis Reinw.
